--- a/Projeto3/Indicator_HDI.xlsx
+++ b/Projeto3/Indicator_HDI.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
-    <t>HDI</t>
-  </si>
-  <si>
     <t>Abkhazia</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>Países</t>
+  </si>
+  <si>
+    <t>IDH</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1226,10 +1226,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.38700000000000001</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.73399999999999999</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.69099999999999995</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.48099999999999998</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.78800000000000003</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.71199999999999997</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.92600000000000005</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.879</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.76900000000000002</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.80500000000000005</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.49099999999999999</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.79</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.746</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.88300000000000001</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.69599999999999995</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.42199999999999999</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.65600000000000003</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.73</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.626</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0.70799999999999996</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.83499999999999996</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.76600000000000001</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.32600000000000001</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.308</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.51300000000000001</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.47499999999999998</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.90300000000000002</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>0.56399999999999995</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="41" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>0.33400000000000002</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>0.32300000000000001</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="44" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>0.79800000000000004</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>0.67400000000000004</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="47" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="48" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>0.70199999999999996</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>0.43</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="51" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>0.27700000000000002</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>0.52300000000000002</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0.73799999999999999</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>0.39700000000000002</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>0.79300000000000004</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>0.77</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>0.83699999999999997</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="59" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>0.86299999999999999</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="60" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>0.89100000000000001</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>0.42499999999999999</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>0.72199999999999998</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="64" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>0.68</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="65" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>0.71599999999999997</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>0.63800000000000001</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>0.66900000000000004</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="69" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>0.53400000000000003</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="71" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="72" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>0.82799999999999996</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>0.35299999999999998</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="74" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="75" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>0.68500000000000005</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>0.877</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0.88</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="80" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>0.66400000000000003</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>0.41299999999999998</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>0.72399999999999998</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>0.9</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="85" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>0.52700000000000002</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>0.86299999999999999</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="89" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>0.56899999999999995</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="94" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>0.34100000000000003</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="95" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>0.34799999999999998</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>0.624</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>0.44900000000000001</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="98" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="99" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>0.61899999999999999</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="100" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>0.88800000000000001</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>0.81100000000000005</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>0.89700000000000002</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="103" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>0.53500000000000003</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="104" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>0.60699999999999998</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>0.70299999999999996</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
         <v>0.56499999999999995</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
         <v>0.90500000000000003</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="108" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="109" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>0.88400000000000001</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="110" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
         <v>0.87</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="111" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
         <v>0.72399999999999998</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="112" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
         <v>0.89500000000000002</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="113" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="114" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>0.69399999999999995</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="115" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>0.73299999999999998</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="116" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>0.499</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="117" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="118" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="119" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>0.88900000000000001</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="120" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="121" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="122" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>0.75700000000000001</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="123" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>0.61099999999999999</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="124" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>0.51400000000000001</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="125" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>0.79800000000000004</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="126" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>0.73299999999999998</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="127" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>0.44</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="128" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>0.32</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>0.76300000000000001</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="130" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>0.80200000000000005</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>0.86299999999999999</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="133" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="134" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>0.72499999999999998</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="135" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>0.48299999999999998</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="136" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>0.38700000000000001</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="137" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>0.752</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="138" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>0.65</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="139" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>0.35199999999999998</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="140" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>0.82699999999999996</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="141" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="142" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="143" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>0.44700000000000001</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="144" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>0.72199999999999998</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="145" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="146" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>0.76200000000000001</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="147" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>0.63500000000000001</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="148" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>0.63800000000000001</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="149" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="150" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>0.64200000000000002</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="151" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>0.76800000000000002</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="152" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="153" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>0.57499999999999996</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="154" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>0.312</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="155" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
         <v>0.47399999999999998</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="156" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
         <v>0.61699999999999999</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="157" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="158" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <v>0.44900000000000001</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="159" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <v>0.90500000000000003</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="160" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="161" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="162" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <v>0.90600000000000003</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="163" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="164" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <v>0.58199999999999996</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="165" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>0.28499999999999998</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="166" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <v>0.44900000000000001</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="167" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="168" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="169" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="170" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="171" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <v>0.94099999999999995</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="172" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>0.70299999999999996</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="173" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>0.499</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="174" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <v>0.77700000000000002</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="175" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>0.76</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="176" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>0.45700000000000002</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="177" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>0.65100000000000002</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="178" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>0.71399999999999997</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="179" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <v>0.63600000000000001</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="180" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="181" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>0.80700000000000005</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="182" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>0.80500000000000005</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="183" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="184" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>0.81799999999999995</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="185" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="186" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>0.77800000000000002</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="187" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>0.747</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="188" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>0.41899999999999998</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="189" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="190" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="191" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="192" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="193" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="194" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="195" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="196" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>0.68500000000000005</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="197" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="198" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>0.503</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="199" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>0.76300000000000001</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="200" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>0.45300000000000001</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="201" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>0.76100000000000001</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="202" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="203" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="204" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>0.76700000000000002</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="205" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <v>0.32900000000000001</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="206" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>0.85599999999999998</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="207" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>0.82899999999999996</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="208" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>0.876</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="209" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>0.504</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="210" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="211" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="212" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <v>0.61</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="213" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="214" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>0.874</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="215" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>0.68</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="216" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>0.40300000000000002</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="217" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>0.67400000000000004</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="218" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="219" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>0.51500000000000001</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="220" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>0.89800000000000002</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="221" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>0.89900000000000002</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="222" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>0.63</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="223" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="224" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>0.6</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="225" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>0.45400000000000001</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="226" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>0.67300000000000004</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="227" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>0.48699999999999999</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="228" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>0.42899999999999999</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="229" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="230" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>0.70099999999999996</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="231" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="232" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>0.755</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="233" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>0.69199999999999995</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="234" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>0.69</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="235" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>0.67700000000000005</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="236" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="237" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="238" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>0.438</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="239" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1">
         <v>0.72</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="240" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1">
         <v>0.84099999999999997</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="241" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1">
         <v>0.86</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="242" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1">
         <v>0.90600000000000003</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="243" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1">
         <v>0.77300000000000002</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="244" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="245" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1">
         <v>0.63100000000000001</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="246" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="247" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="248" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1">
         <v>0.73199999999999998</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="249" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="250" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="251" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="252" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1">
         <v>0.58399999999999996</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="253" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="254" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="255" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="256" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1">
         <v>0.45200000000000001</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="257" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="258" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1">
         <v>0.41899999999999998</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="259" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1">
         <v>0.34899999999999998</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="260" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="261" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="262" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="263" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="264" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="265" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="266" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="267" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="268" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="269" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="270" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="271" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
